--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,49 +43,43 @@
     <t>evil</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
   </si>
   <si>
     <t>interesting</t>
@@ -461,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,10 +463,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -530,13 +524,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -548,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -572,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -580,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9038461538461539</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -598,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -622,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -630,13 +624,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -648,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8333333333333334</v>
+        <v>0.84</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -672,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -680,13 +674,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8636363636363636</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C6">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -698,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.6666666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -722,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -730,49 +724,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>0.5862068965517241</v>
+      </c>
+      <c r="L7">
+        <v>17</v>
+      </c>
+      <c r="M7">
+        <v>17</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>12</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7">
-        <v>0.6206896551724138</v>
-      </c>
-      <c r="L7">
-        <v>18</v>
-      </c>
-      <c r="M7">
-        <v>18</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.775</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -798,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.5333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -822,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -830,13 +824,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -848,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -872,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -880,13 +874,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.65</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -898,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.06739526411657559</v>
+        <v>0.06466302367941712</v>
       </c>
       <c r="L10">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M10">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -922,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -930,13 +924,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5507246376811594</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -948,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -956,13 +950,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4042553191489361</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -974,59 +968,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
